--- a/e-tantana/public/Vatom-panorenana.xlsx
+++ b/e-tantana/public/Vatom-panorenana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\L2\S4\Projets\Tahina\Amboara\sujet S4\e-tantana\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E99C5-FB76-49DC-800A-674CCE77ED00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375064A-DB37-4C22-9F5E-922A4CE5945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23D18269-D9DD-45CB-B4F2-84D8E3E2AAD1}"/>
   </bookViews>
@@ -102,16 +102,16 @@
     <t>Jean</t>
   </si>
   <si>
-    <t>Rasoa</t>
-  </si>
-  <si>
     <t>Sitraka</t>
   </si>
   <si>
-    <t>FilohaD</t>
-  </si>
-  <si>
-    <t>Ekipa Nasionaly</t>
+    <t>Foibe (Ekipa Nasionaly, RAPI)</t>
+  </si>
+  <si>
+    <t>Filoha (Diosezy)</t>
+  </si>
+  <si>
+    <t>Ravelo</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A2:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="14" width="12.5703125" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
@@ -652,15 +652,15 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2"/>
     </row>
